--- a/admin/public/excel/en/2019/Ranking.xlsx
+++ b/admin/public/excel/en/2019/Ranking.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olive\Desktop\INDEX1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZIPTECH LTD\Downloads\Compressed\INDEX_3\INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6C19D6-AF11-49A6-9407-B28258F7E325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16905" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16910" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Index by Country" sheetId="3" r:id="rId1"/>
+    <sheet name="Index by Country" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <t>country</t>
   </si>
@@ -354,49 +355,45 @@
   </si>
   <si>
     <t>regional average index score</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Congo, Rep.</t>
-  </si>
-  <si>
-    <t>Egypt, Arab Rep.</t>
-  </si>
-  <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>sdgi_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sdgi_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AU regsubregion</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep.</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>sdgi_rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,7 +404,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -445,25 +441,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,20 +763,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="106.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="104.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>118</v>
@@ -804,1090 +792,1077 @@
         <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
-        <v>65.553668028693323</v>
+      <c r="C2" s="2">
+        <v>65.767602126779025</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>62.149625378021753</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>62.264974014176808</v>
+      </c>
+      <c r="F2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>49.178585367227839</v>
+      <c r="C3" s="2">
+        <v>49.261495576793635</v>
       </c>
       <c r="D3">
         <v>38</v>
       </c>
       <c r="E3">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>51.481215617506962</v>
+      <c r="C4" s="2">
+        <v>51.522992158147716</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>61.440746660363885</v>
+      <c r="C5" s="2">
+        <v>61.635423703800079</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>53.473282334005496</v>
+      <c r="C6" s="2">
+        <v>53.481568360609657</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>50.247954644609692</v>
+      <c r="C7" s="2">
+        <v>50.250507610251276</v>
       </c>
       <c r="D7">
         <v>34</v>
       </c>
       <c r="E7">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>63.998966124806714</v>
+      <c r="C8" s="2">
+        <v>64.078202065305632</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>51.53634768070328</v>
+      <c r="C9" s="2">
+        <v>51.568909245827257</v>
       </c>
       <c r="D9">
         <v>28</v>
       </c>
       <c r="E9">
-        <v>45.483894493206584</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>45.702348886580467</v>
+      </c>
+      <c r="F9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>36.698868078001908</v>
+      <c r="C10" s="2">
+        <v>36.703986454846792</v>
       </c>
       <c r="D10">
         <v>51</v>
       </c>
       <c r="E10">
-        <v>45.483894493206584</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>45.702348886580467</v>
+      </c>
+      <c r="F10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="C11">
-        <v>38.725211882607404</v>
+      <c r="C11" s="2">
+        <v>38.73093637796763</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11">
-        <v>45.483894493206584</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>45.702348886580467</v>
+      </c>
+      <c r="F11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>47.553061136689863</v>
+      <c r="C12" s="2">
+        <v>47.570219272529641</v>
       </c>
       <c r="D12">
         <v>41</v>
       </c>
       <c r="E12">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>41.618254675078809</v>
+      <c r="C13" s="2">
+        <v>41.622300136051308</v>
       </c>
       <c r="D13">
         <v>48</v>
       </c>
       <c r="E13">
-        <v>45.483894493206584</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>45.702348886580467</v>
+      </c>
+      <c r="F13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14">
-        <v>48.616483820382754</v>
+      <c r="C14" s="2">
+        <v>48.661838735844157</v>
       </c>
       <c r="D14">
         <v>39</v>
       </c>
       <c r="E14">
-        <v>45.483894493206584</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>45.702348886580467</v>
+      </c>
+      <c r="F14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>55.559360973928541</v>
+      <c r="C15" s="2">
+        <v>55.585127999181339</v>
       </c>
       <c r="D15">
         <v>17</v>
       </c>
       <c r="E15">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
-        <v>49.634885403691996</v>
+      <c r="C16" s="2">
+        <v>49.673603649012975</v>
       </c>
       <c r="D16">
         <v>36</v>
       </c>
       <c r="E16">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F16" s="3" t="s">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17">
-        <v>63.6572129624032</v>
+      <c r="C17" s="2">
+        <v>63.775232405527035</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>62.149625378021753</v>
-      </c>
-      <c r="F17" s="3" t="s">
+        <v>62.264974014176808</v>
+      </c>
+      <c r="F17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18">
-        <v>42.055094359202869</v>
+      <c r="C18" s="2">
+        <v>43.388052944234495</v>
       </c>
       <c r="D18">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>45.702348886580467</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43.325186396789441</v>
+      </c>
+      <c r="D19">
         <v>47</v>
       </c>
-      <c r="E18">
-        <v>45.483894493206584</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E19">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2">
+        <v>53.217692759495492</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2">
+        <v>59.376682060447536</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>45.702348886580467</v>
+      </c>
+      <c r="F21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>43.315401267886486</v>
-      </c>
-      <c r="D19">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2">
+        <v>51.91245528976615</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2">
+        <v>61.192703848492663</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <v>49.358232626384165</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45.484469532666971</v>
+      </c>
+      <c r="D25">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2">
+        <v>56.552495982765819</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <v>50.907141421892845</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="E19">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C28" s="2">
+        <v>48.030621529371203</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29"/>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45.566085137424594</v>
+      </c>
+      <c r="D30">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>45.702348886580467</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2">
+        <v>52.319987989242186</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2">
+        <v>51.749189914828875</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2">
+        <v>51.289422675209259</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>62.264974014176808</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2">
+        <v>66.188923273118149</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2">
+        <v>64.367658805004893</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>62.264974014176808</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="2">
+        <v>51.417438239533809</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2">
+        <v>57.089353182070226</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2">
+        <v>50.330981325738449</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="2">
+        <v>47.066862410986865</v>
+      </c>
+      <c r="D39">
+        <v>43</v>
+      </c>
+      <c r="E39">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2">
+        <v>57.901095432181108</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2">
+        <v>61.841523250856731</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="2">
+        <v>56.957104439757821</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43"/>
+      <c r="F43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="2">
+        <v>49.747432969066246</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2">
+        <v>40.121943944255172</v>
+      </c>
+      <c r="D45">
+        <v>49</v>
+      </c>
+      <c r="E45">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>60.432802251044386</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2">
+        <v>29.194998535707452</v>
+      </c>
+      <c r="D47">
+        <v>52</v>
+      </c>
+      <c r="E47">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="2">
+        <v>47.400212159002848</v>
+      </c>
+      <c r="D48">
+        <v>42</v>
+      </c>
+      <c r="E48">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="C20">
-        <v>52.298034151431509</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="C49" s="2">
+        <v>52.355321236419179</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F49" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21">
-        <v>53.210966831573636</v>
-      </c>
-      <c r="D21">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>59.06263682129886</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>45.483894493206584</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23">
-        <v>51.896413883879703</v>
-      </c>
-      <c r="D23">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>61.169165618157677</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>49.343866299857439</v>
-      </c>
-      <c r="D25">
-        <v>37</v>
-      </c>
-      <c r="E25">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>45.462803051485885</v>
-      </c>
-      <c r="D26">
-        <v>45</v>
-      </c>
-      <c r="E26">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>56.534186278663647</v>
-      </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28">
-        <v>50.835344371178991</v>
-      </c>
-      <c r="D28">
-        <v>32</v>
-      </c>
-      <c r="E28">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29">
-        <v>48.017603142635949</v>
-      </c>
-      <c r="D29">
-        <v>40</v>
-      </c>
-      <c r="E29">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31">
-        <v>45.558258628376798</v>
-      </c>
-      <c r="D31">
-        <v>44</v>
-      </c>
-      <c r="E31">
-        <v>45.483894493206584</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32">
-        <v>52.316112336942346</v>
-      </c>
-      <c r="D32">
-        <v>24</v>
-      </c>
-      <c r="E32">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33">
-        <v>51.744534819354044</v>
-      </c>
-      <c r="D33">
-        <v>27</v>
-      </c>
-      <c r="E33">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34">
-        <v>51.248450424525984</v>
-      </c>
-      <c r="D34">
-        <v>31</v>
-      </c>
-      <c r="E34">
-        <v>62.149625378021753</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35">
-        <v>65.954907615652033</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36">
-        <v>64.278655886558141</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>62.149625378021753</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37">
-        <v>51.399724680554115</v>
-      </c>
-      <c r="D37">
-        <v>30</v>
-      </c>
-      <c r="E37">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38">
-        <v>57.009028992053857</v>
-      </c>
-      <c r="D38">
-        <v>13</v>
-      </c>
-      <c r="E38">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39">
-        <v>50.320085851585034</v>
-      </c>
-      <c r="D39">
-        <v>33</v>
-      </c>
-      <c r="E39">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40">
-        <v>47.034067420798365</v>
-      </c>
-      <c r="D40">
-        <v>43</v>
-      </c>
-      <c r="E40">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41">
-        <v>57.896727063850065</v>
-      </c>
-      <c r="D41">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42">
-        <v>61.781100594457996</v>
-      </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43">
-        <v>56.93117575512256</v>
-      </c>
-      <c r="D43">
-        <v>14</v>
-      </c>
-      <c r="E43">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45">
-        <v>49.739437801271166</v>
-      </c>
-      <c r="D45">
-        <v>35</v>
-      </c>
-      <c r="E45">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46">
-        <v>40.119114027335144</v>
-      </c>
-      <c r="D46">
-        <v>49</v>
-      </c>
-      <c r="E46">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47">
-        <v>59.980847561735551</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48">
-        <v>29.182619688894125</v>
-      </c>
-      <c r="D48">
-        <v>52</v>
-      </c>
-      <c r="E48">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49">
-        <v>47.376068642114006</v>
-      </c>
-      <c r="D49">
-        <v>42</v>
-      </c>
-      <c r="E49">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>94</v>
       </c>
-      <c r="C50">
-        <v>55.936266605415774</v>
+      <c r="C50" s="2">
+        <v>55.947655598131846</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F50" s="5" t="s">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F50" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="C51">
-        <v>52.666102604278876</v>
+      <c r="C51" s="2">
+        <v>52.687394070658506</v>
       </c>
       <c r="D51">
         <v>23</v>
       </c>
       <c r="E51">
-        <v>52.589205419911622</v>
-      </c>
-      <c r="F51" s="5" t="s">
+        <v>52.612355902730819</v>
+      </c>
+      <c r="F51" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="C52">
-        <v>66.010139587928094</v>
+      <c r="C52" s="2">
+        <v>66.124954058363841</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>62.149625378021753</v>
-      </c>
-      <c r="F52" s="5" t="s">
+        <v>62.264974014176808</v>
+      </c>
+      <c r="F52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>96</v>
       </c>
-      <c r="C53">
-        <v>54.875055649668646</v>
+      <c r="C53" s="2">
+        <v>54.881651323908407</v>
       </c>
       <c r="D53">
         <v>18</v>
       </c>
       <c r="E53">
-        <v>48.823525603366086</v>
-      </c>
-      <c r="F53" s="5" t="s">
+        <v>48.836438555335953</v>
+      </c>
+      <c r="F53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>100</v>
       </c>
-      <c r="C54">
-        <v>53.035621004162934</v>
+      <c r="C54" s="2">
+        <v>53.049271638513801</v>
       </c>
       <c r="D54">
         <v>22</v>
       </c>
       <c r="E54">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F54" s="3" t="s">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="C55">
-        <v>54.765707625463051</v>
+      <c r="C55" s="2">
+        <v>54.814117173188961</v>
       </c>
       <c r="D55">
         <v>19</v>
       </c>
       <c r="E55">
-        <v>55.832980080102011</v>
-      </c>
-      <c r="F55" s="3" t="s">
+        <v>55.942733244706169</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F55">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>